--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Wdowiak.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Wdowiak.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,256 +463,909 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:11:42.16</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.49989293981</v>
       </c>
       <c r="B2" t="n">
+        <v>3584.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.281868968691143</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45687.50333969908</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3882.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.402280126299179</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45687.51588715277</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4966.4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.39230169568743</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45687.49989178241</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3584.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.204102482114517</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45687.50333622685</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3882</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.94206932612828</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45687.51588599537</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4966.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.303168160574777</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45684.59146018518</v>
+      </c>
+      <c r="B8" t="n">
         <v>502.1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C8" t="n">
         <v>10.22</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D8" t="n">
         <v>1.241163372993469</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:11:48.86</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45684.59153773148</v>
+      </c>
+      <c r="B9" t="n">
         <v>508.8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C9" t="n">
         <v>10.03</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D9" t="n">
         <v>1.236101244177136</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:11:55.26</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45684.59161180555</v>
+      </c>
+      <c r="B10" t="n">
         <v>515.2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C10" t="n">
         <v>10.19</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D10" t="n">
         <v>1.408012517860957</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:11:41.66</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45684.59145439815</v>
+      </c>
+      <c r="B11" t="n">
         <v>501.6</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C11" t="n">
         <v>8.17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D11" t="n">
         <v>1.583671041897366</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:11:52.06</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45684.59157476852</v>
+      </c>
+      <c r="B12" t="n">
         <v>512</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C12" t="n">
         <v>6.11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D12" t="n">
         <v>1.642546330179487</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>27.01.2025 14:11:54.96</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45684.59160833334</v>
+      </c>
+      <c r="B13" t="n">
         <v>514.9</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C13" t="n">
         <v>9.33</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D13" t="n">
         <v>1.806863239833287</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:27:44.55</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>779.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4.017812899180822</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:30:26.75</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45685.64614293981</v>
+      </c>
+      <c r="B16" t="n">
         <v>941.7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C16" t="n">
         <v>14.95</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D16" t="n">
         <v>5.046788147517615</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:52:11.25</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45685.64971932871</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1250.7</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.776089804513113</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45685.66124131945</v>
+      </c>
+      <c r="B18" t="n">
         <v>2246.2</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C18" t="n">
         <v>13.86</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D18" t="n">
         <v>3.933877059391568</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:27:44.25</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>779.2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.457128388541086</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:30:26.45</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45685.64613946759</v>
+      </c>
+      <c r="B19" t="n">
         <v>941.4</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C19" t="n">
         <v>8.220000000000001</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D19" t="n">
         <v>3.922867093767438</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:52:10.95</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.65116261574</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1375.4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.980909841401236</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.66123784722</v>
+      </c>
+      <c r="B21" t="n">
         <v>2245.9</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C21" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D21" t="n">
         <v>3.069289088249209</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.667546875</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2791</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.543050800051007</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.66911168981</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2926.2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.308462892259869</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45685.68455150463</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4260.2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.183844123567855</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45685.67038715278</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3036.4</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.041034323828562</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45685.68442534722</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4249.3</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.977724824632916</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45685.68454918981</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4260</v>
+      </c>
+      <c r="C27" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.918066586766926</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45686.47779293981</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1329</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.172521889209747</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45686.47780451389</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.1760452376412493</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45686.47782418982</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1331.7</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.1951027320963996</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45686.47492025463</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1080.8</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8734851692404065</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686.47778946759</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1328.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.262347034045627</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.47905451389</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1438</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.3958185485431127</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45686.49215173611</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2569.6</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3.374331542423794</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45686.49767141203</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3046.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3.004961558750698</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45686.49900243056</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3161.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="D36" t="n">
+        <v>3.136168411799839</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45686.4921494213</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2569.4</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3.225031375885011</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45686.49825011574</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3096.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.846060480390277</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45686.49983344907</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3233.3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.88932796886989</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
